--- a/Test Case of bdjobs.xlsx
+++ b/Test Case of bdjobs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="122">
   <si>
     <t>Section</t>
   </si>
@@ -930,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1102,9 @@
       <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1164,7 +1166,9 @@
       <c r="F10" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1604,8 +1608,10 @@
     <hyperlink ref="D24" r:id="rId2"/>
     <hyperlink ref="D20" r:id="rId3"/>
     <hyperlink ref="D26" r:id="rId4"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>